--- a/data/List_of_Departments.xlsx
+++ b/data/List_of_Departments.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Documents\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4329DB79-CE9E-45A8-A33D-31F36DF2C4E7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6C54D904-E432-404F-98D1-8E912B88D8E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7152D3A1-8DA5-4EF1-AF8E-787FF399B030}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="29070" windowHeight="16500" xr2:uid="{7152D3A1-8DA5-4EF1-AF8E-787FF399B030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="219">
   <si>
     <t>Academic Advising</t>
   </si>
@@ -618,9 +614,6 @@
     <t>ASTRON</t>
   </si>
   <si>
-    <t>American Sign Language</t>
-  </si>
-  <si>
     <t>ASL</t>
   </si>
   <si>
@@ -685,9 +678,6 @@
   </si>
   <si>
     <t>ACADAFF</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
   <si>
     <t>School of Health and Rehabilitation Sciences</t>
@@ -1160,10 +1150,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2779B64-F34F-4E1B-B363-08894FBCCAFD}">
-  <dimension ref="A1:BO91"/>
+  <dimension ref="A1:BR91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E15" sqref="E15:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1243,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>125</v>
@@ -1278,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>164</v>
@@ -1292,28 +1282,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>194</v>
@@ -1589,10 +1579,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>191</v>
@@ -1654,28 +1644,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>184</v>
@@ -1725,7 +1715,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>193</v>
@@ -1866,7 +1856,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>72</v>
@@ -1881,7 +1871,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>181</v>
@@ -1929,7 +1919,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>186</v>
@@ -1957,10 +1947,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>193</v>
